--- a/Projeto 1/People living with HIV 2017.xlsx
+++ b/Projeto 1/People living with HIV 2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b26f2b439bb4d4e/Faculdade/Insper/2ºSemestre/Ciência dos dados/CD/Projeto 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Faculdade\Insper\2ºSemestre\Ciência dos dados\CD\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25AEF03-AD2B-4686-A888-73224D59A8E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A25AEF03-AD2B-4686-A888-73224D59A8E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{972BF054-7A18-4753-8559-C8913F21448A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Number of people living wi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Selected Regions</t>
   </si>
@@ -31,127 +31,67 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>320000 [280000 - 380000]</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
-    <t>370000 [330000 - 400000]</t>
-  </si>
-  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>120 [60 - 240]</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
-    <t>18000 [13000 - 24000]</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>680000 [520000 - 890000]</t>
-  </si>
-  <si>
     <t>Kenya</t>
   </si>
   <si>
-    <t>1500000 [1300000 - 1900000]</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>340000 [320000 - 360000]</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>35000 [28000 - 46000]</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>2100000 [1700000 - 2600000]</t>
-  </si>
-  <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>12000 [10000 - 15000]</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>1000000 [920000 - 1100000]</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>200000 [180000 - 210000]</t>
-  </si>
-  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>220000 [200000 - 250000]</t>
-  </si>
-  <si>
     <t>South Sudan</t>
   </si>
   <si>
-    <t>190000 [140000 - 230000]</t>
-  </si>
-  <si>
     <t>Eswatini</t>
   </si>
   <si>
-    <t>200000 [190000 - 220000]</t>
-  </si>
-  <si>
     <t>United Republic of Tanzania</t>
   </si>
   <si>
-    <t>1500000 [1400000 - 1700000]</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>1400000 [1300000 - 1500000]</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>7600000 [6900000 - 8100000]</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>1200000 [1100000 - 1400000]</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>1300000 [1100000 - 1500000]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -993,18 +933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,164 +954,164 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B13">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B15">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B19">
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+      <c r="B21">
+        <v>1300000</v>
       </c>
     </row>
   </sheetData>
